--- a/print_settings/strength/infill_desc_calculator.xlsx
+++ b/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36A0C1-CA40-4C90-A458-7C2666F59840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA49AC-1CB2-4B38-920C-5F200A994927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -227,12 +227,6 @@
     <t>Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.</t>
   </si>
   <si>
-    <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.</t>
-  </si>
-  <si>
-    <t>Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.</t>
-  </si>
-  <si>
     <t>Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
 Recommended with layer anchoring to improve not perpendicular strength.</t>
   </si>
   <si>
-    <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.</t>
-  </si>
-  <si>
     <t>Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.</t>
   </si>
   <si>
-    <t>Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.</t>
-  </si>
-  <si>
     <t>[Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.</t>
   </si>
   <si>
@@ -277,12 +265,6 @@
   </si>
   <si>
     <t>Ultra-High</t>
-  </si>
-  <si>
-    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.</t>
-  </si>
-  <si>
-    <t>Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.</t>
   </si>
   <si>
     <t>Esthetic pattern with low strength and high print time.</t>
@@ -325,24 +307,9 @@
     <t>Zig Zag</t>
   </si>
   <si>
-    <t>Coss Zag</t>
-  </si>
-  <si>
     <t>Locked Zag</t>
   </si>
   <si>
-    <t>Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.</t>
-  </si>
-  <si>
-    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.</t>
-  </si>
-  <si>
-    <t>Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.</t>
-  </si>
-  <si>
-    <t>Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
-  </si>
-  <si>
     <t>Same as [Zig Zag](#zig-zag) but increasing near walls</t>
   </si>
   <si>
@@ -350,6 +317,40 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>Cross Zag</t>
+  </si>
+  <si>
+    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Consider using new [Zig Zag](#zig-zag) infill instead.</t>
+  </si>
+  <si>
+    <t>Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.</t>
+  </si>
+  <si>
+    <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).</t>
+  </si>
+  <si>
+    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
+  </si>
+  <si>
+    <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.</t>
+  </si>
+  <si>
+    <t>Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
+Easier to slice but consider using [TPMS-D](#tpms-d) or [Gyroid](#gyroid) for better strength and flexibility.</t>
+  </si>
+  <si>
+    <t>Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infill Y axis for models with two symmetric parts.</t>
+  </si>
+  <si>
+    <t>Similar to [Zig Zag](#zig-zag) but displacing each layer with Infill shift step parameter.</t>
+  </si>
+  <si>
+    <t>Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
+  </si>
+  <si>
+    <t>Triply Periodic Minimal Surface (Schwarz Diamond). Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,10 +1065,10 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1100,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
         <v>22</v>
@@ -1109,28 +1110,28 @@
         <v>49</v>
       </c>
       <c r="T1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="V1" t="s">
         <v>50</v>
       </c>
       <c r="W1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y1" t="s">
         <v>43</v>
       </c>
       <c r="Z1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AA1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="120" x14ac:dyDescent="0.25">
@@ -1167,7 +1168,7 @@
         <v>Normal</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N2">
         <v>8</v>
@@ -1258,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1275,7 +1276,7 @@
         <v>Low</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -1338,7 +1339,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
-Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.
+Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Consider using new [Zig Zag](#zig-zag) infill instead.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
@@ -1383,7 +1384,7 @@
         <v>High</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N4">
         <v>8</v>
@@ -1457,7 +1458,7 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -1491,7 +1492,7 @@
         <v>Low</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -1554,7 +1555,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Lattice
-Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.
+Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
@@ -1599,7 +1600,7 @@
         <v>Low</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N6">
         <v>7</v>
@@ -1707,7 +1708,7 @@
         <v>High</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N7">
         <v>7</v>
@@ -1815,7 +1816,7 @@
         <v>Normal</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -1923,7 +1924,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -1997,7 +1998,7 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="360" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>9</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -2025,7 +2026,7 @@
         <v>High</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -2088,7 +2089,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Gyroid
-Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.
+Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
@@ -2099,12 +2100,12 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -2119,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -2136,7 +2137,7 @@
         <v>High</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N11">
         <v>11</v>
@@ -2199,7 +2200,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### TPMS-D
-Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.
+Triply Periodic Minimal Surface (Schwarz Diamond). Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
@@ -2218,7 +2219,7 @@
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2230,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -2247,7 +2248,7 @@
         <v>High</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N12">
         <v>17</v>
@@ -2329,7 +2330,7 @@
         <v>0.4</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2341,7 +2342,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -2358,7 +2359,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>5</v>
@@ -2452,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -2469,7 +2470,7 @@
         <v>Normal</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>8</v>
@@ -2544,7 +2545,7 @@
 </v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="300" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2561,10 +2562,10 @@
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -2581,7 +2582,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>8</v>
@@ -2644,7 +2645,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Honeycomb
-Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.
+Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:**  % of  total infill volume
@@ -2675,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -2755,7 +2756,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 3D Honeycomb
-This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.
+This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
 - **Density Calculation:** Unknown
@@ -2786,7 +2787,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -2803,7 +2804,7 @@
         <v>Normal</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>13</v>
@@ -2898,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2915,7 +2916,7 @@
         <v>Normal</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N18">
         <v>7</v>
@@ -2997,7 +2998,7 @@
         <v>1.85</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -3009,7 +3010,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -3026,7 +3027,7 @@
         <v>Normal</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N19">
         <v>9</v>
@@ -3108,7 +3109,7 @@
         <v>9.99</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -3120,7 +3121,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -3137,7 +3138,7 @@
         <v>Low</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -3222,7 +3223,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -3239,7 +3240,7 @@
         <v>Low</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3313,7 +3314,7 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>21</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -3341,7 +3342,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -3405,6 +3406,7 @@
 "</f>
         <v xml:space="preserve">### Cross Hatch
 Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
+Easier to slice but consider using [TPMS-D](#tpms-d) or [Gyroid](#gyroid) for better strength and flexibility.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
 - **Density Calculation:**  % of  total infill volume
@@ -3426,7 +3428,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -3443,7 +3445,7 @@
         <v>High</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N23">
         <v>8</v>
@@ -3525,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -3545,7 +3547,7 @@
         <v>Low</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -3608,7 +3610,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Zig Zag
-Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.
+Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infill Y axis for models with two symmetric parts.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
@@ -3627,10 +3629,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -3647,7 +3649,7 @@
         <v>Low</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N25">
         <v>8</v>
@@ -3692,11 +3694,11 @@
       </c>
       <c r="Y25" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
-        <v>coss-zag</v>
+        <v>cross-zag</v>
       </c>
       <c r="Z25" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[Coss Zag](#coss-zag)</v>
+        <v>[Cross Zag](#cross-zag)</v>
       </c>
       <c r="AA25" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -3709,15 +3711,15 @@
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
-        <v xml:space="preserve">### Coss Zag
-Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.
+        <v xml:space="preserve">### Cross Zag
+Similar to [Zig Zag](#zig-zag) but displacing each layer with Infill shift step parameter.
 - **Horizontal Strength (X-Y):** Normal
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal
 - **Material/Time (Higher better):** Normal
-![infill-top-coss-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-coss-zag.png?raw=true)
+![infill-top-cross-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-zag.png?raw=true)
 </v>
       </c>
     </row>
@@ -3729,10 +3731,10 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -3749,7 +3751,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="N26">
         <v>15</v>
@@ -3812,7 +3814,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Locked Zag
-Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
+Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:** Same as [Zig Zag](#zig-zag) but increasing near walls
